--- a/template/invoice.xlsx
+++ b/template/invoice.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0D7C88-EDBF-42EE-B8F7-8523ADC9ED6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724ECF84-891B-4654-8357-A5E7C92C2E85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>Jasa Perbaikan Website</t>
   </si>
   <si>
-    <t>WA: 0815 4514 3654 | web: zen.mabaiz.web.id</t>
-  </si>
-  <si>
     <t>Biaya</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>Dummy</t>
+  </si>
+  <si>
+    <t>Telegram: @tipszen</t>
   </si>
 </sst>
 </file>
@@ -81,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_(\R\p* #,##0_);_(\R\p* \(#,##0\);_(\R\p* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(\R\p* #,##0_);_(\R\p* \(#,##0\);_(\R\p* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -169,37 +169,37 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,189 +485,189 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="5" t="str">
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="str">
         <f>A4</f>
         <v>Reguler</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4">
         <f>IF($H$4="Reguler",B8*150000,IF($H$4="Member",B8*100000))</f>
         <v>18750</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4">
         <f>SUM(D8:D17)</f>
         <v>18750</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="A20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
